--- a/csv_results_LOW_2E.xlsx
+++ b/csv_results_LOW_2E.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hidde\Documents\Aerospace Engineering Bachelor Year 3\Design Synthesis Exercise\Bigger_is_Better\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Documents\DSE\Bigger_is_Better\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9373932-3B6D-4ADD-A790-D31CDAD3E2FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A9373932-3B6D-4ADD-A790-D31CDAD3E2FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{C6149685-F79B-4A9A-835D-31993276C620}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="-108" windowWidth="22068" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="csv_results_LOW_2E" sheetId="1" r:id="rId1"/>
@@ -848,9 +848,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1209,7 +1211,7 @@
   <dimension ref="A1:CD2735"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1218,6 +1220,7 @@
     <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="11" max="13" width="0" hidden="1" customWidth="1"/>
     <col min="20" max="22" width="0" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" style="2"/>
     <col min="29" max="31" width="0" hidden="1" customWidth="1"/>
     <col min="38" max="40" width="0" hidden="1" customWidth="1"/>
     <col min="47" max="52" width="0" hidden="1" customWidth="1"/>
@@ -1296,7 +1299,7 @@
       <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Z1" t="s">
@@ -1544,7 +1547,7 @@
       <c r="X2">
         <v>1945609.9573755299</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="2">
         <v>2041934.0792185301</v>
       </c>
       <c r="Z2">
@@ -1792,7 +1795,7 @@
       <c r="X3">
         <v>472485.24524999998</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="2">
         <v>472485.24524999998</v>
       </c>
       <c r="Z3">
@@ -2040,7 +2043,7 @@
       <c r="X4">
         <v>173369.28224155301</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="2">
         <v>183412.55766495201</v>
       </c>
       <c r="Z4">
@@ -2288,7 +2291,7 @@
       <c r="X5">
         <v>1299755.4298839699</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="2">
         <v>1386036.27630357</v>
       </c>
       <c r="Z5">
@@ -2536,7 +2539,7 @@
       <c r="X6">
         <v>293370.70199894899</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="2">
         <v>361159.220459253</v>
       </c>
       <c r="Z6">
@@ -2784,7 +2787,7 @@
       <c r="X7">
         <v>31958.322436609498</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="2">
         <v>35237.308783194298</v>
       </c>
       <c r="Z7">
@@ -3032,7 +3035,7 @@
       <c r="X8">
         <v>429407.728750457</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="2">
         <v>428635.27767164703</v>
       </c>
       <c r="Z8">
@@ -3280,7 +3283,7 @@
       <c r="X9">
         <v>28991.8680158522</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="2">
         <v>30671.365743231301</v>
       </c>
       <c r="Z9">
@@ -3528,7 +3531,7 @@
       <c r="X10">
         <v>126499.266719889</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="2">
         <v>126583.78032467399</v>
       </c>
       <c r="Z10">
@@ -3776,7 +3779,7 @@
       <c r="X11">
         <v>343905.32903770299</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="2">
         <v>355917.14533559902</v>
       </c>
       <c r="Z11">
@@ -4024,7 +4027,7 @@
       <c r="X12">
         <v>0.64101527859067897</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="2">
         <v>0.64101527859067897</v>
       </c>
       <c r="Z12">
@@ -4272,7 +4275,7 @@
       <c r="X13">
         <v>3.9789999999999999E-2</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="2">
         <v>3.6979999999999999E-2</v>
       </c>
       <c r="Z13">
@@ -4520,7 +4523,7 @@
       <c r="X14">
         <v>16.1099592508338</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="2">
         <v>17.334107046800401</v>
       </c>
       <c r="Z14">
@@ -4768,7 +4771,7 @@
       <c r="X15" s="1">
         <v>1.1982994325312499E-5</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Y15" s="3">
         <v>1.1982994325312499E-5</v>
       </c>
       <c r="Z15" s="1">
@@ -5016,7 +5019,7 @@
       <c r="X16">
         <v>0.85</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="2">
         <v>0.85</v>
       </c>
       <c r="Z16">
@@ -5264,7 +5267,7 @@
       <c r="X17">
         <v>10</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="2">
         <v>12</v>
       </c>
       <c r="Z17">
@@ -5512,7 +5515,7 @@
       <c r="X18">
         <v>323.20923094595599</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="2">
         <v>341.93272846411799</v>
       </c>
       <c r="Z18">
@@ -5760,7 +5763,7 @@
       <c r="X19">
         <v>56.851493467274501</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="2">
         <v>64.056168645723801</v>
       </c>
       <c r="Z19">
@@ -6008,7 +6011,7 @@
       <c r="X20">
         <v>8.1216419238963606</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="2">
         <v>7.6257343625861704</v>
       </c>
       <c r="Z20">
@@ -6256,7 +6259,7 @@
       <c r="X21">
         <v>3.24865676955854</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="2">
         <v>3.05029374503447</v>
       </c>
       <c r="Z21">
@@ -6504,7 +6507,7 @@
       <c r="X22">
         <v>0</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="2">
         <v>0</v>
       </c>
       <c r="Z22">
@@ -6752,7 +6755,7 @@
       <c r="X23">
         <v>0.4</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="2">
         <v>0.4</v>
       </c>
       <c r="Z23">
@@ -7000,7 +7003,7 @@
       <c r="X24">
         <v>67.140015067668401</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" s="2">
         <v>67.140015067668401</v>
       </c>
       <c r="Z24">
@@ -7248,7 +7251,7 @@
       <c r="X25">
         <v>6.9352910910709697</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" s="2">
         <v>6.9352910910709697</v>
       </c>
       <c r="Z25">
@@ -7496,7 +7499,7 @@
       <c r="X26">
         <v>12.830288518481201</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" s="2">
         <v>12.830288518481201</v>
       </c>
       <c r="Z26">
@@ -7744,7 +7747,7 @@
       <c r="X27">
         <v>22.8864606005342</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="2">
         <v>22.8864606005342</v>
       </c>
       <c r="Z27">
@@ -7992,7 +7995,7 @@
       <c r="X28">
         <v>36.119478805946102</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="2">
         <v>35.989646789837003</v>
       </c>
       <c r="Z28">
@@ -8240,7 +8243,7 @@
       <c r="X29">
         <v>53.451026961310902</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="2">
         <v>53.286224529280801</v>
       </c>
       <c r="Z29">
@@ -8488,7 +8491,7 @@
       <c r="X30">
         <v>39.881495435983197</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="2">
         <v>47.742486011643301</v>
       </c>
       <c r="Z30">
@@ -8736,7 +8739,7 @@
       <c r="X31">
         <v>446028.738705419</v>
       </c>
-      <c r="Y31">
+      <c r="Y31" s="2">
         <v>471867.16528048198</v>
       </c>
       <c r="Z31">
@@ -8984,7 +8987,7 @@
       <c r="X32">
         <v>0.7</v>
       </c>
-      <c r="Y32">
+      <c r="Y32" s="2">
         <v>0.7</v>
       </c>
       <c r="Z32">
@@ -9232,7 +9235,7 @@
       <c r="X33">
         <v>209.604910009283</v>
       </c>
-      <c r="Y33">
+      <c r="Y33" s="2">
         <v>209.604910009283</v>
       </c>
       <c r="Z33">
@@ -9480,7 +9483,7 @@
       <c r="X34">
         <v>10000</v>
       </c>
-      <c r="Y34">
+      <c r="Y34" s="2">
         <v>10000</v>
       </c>
       <c r="Z34">
@@ -9728,7 +9731,7 @@
       <c r="X35">
         <v>1.14697305589149E-2</v>
       </c>
-      <c r="Y35">
+      <c r="Y35" s="2">
         <v>1.12772471740027E-2</v>
       </c>
       <c r="Z35">
@@ -9927,7 +9930,7 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
+      <c r="Y49" s="3"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
@@ -10010,7 +10013,7 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
-      <c r="Y83" s="1"/>
+      <c r="Y83" s="3"/>
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
@@ -10093,7 +10096,7 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
-      <c r="Y117" s="1"/>
+      <c r="Y117" s="3"/>
       <c r="Z117" s="1"/>
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
@@ -10176,7 +10179,7 @@
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
-      <c r="Y151" s="1"/>
+      <c r="Y151" s="3"/>
       <c r="Z151" s="1"/>
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
@@ -10259,7 +10262,7 @@
       <c r="V185" s="1"/>
       <c r="W185" s="1"/>
       <c r="X185" s="1"/>
-      <c r="Y185" s="1"/>
+      <c r="Y185" s="3"/>
       <c r="Z185" s="1"/>
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
@@ -10342,7 +10345,7 @@
       <c r="V219" s="1"/>
       <c r="W219" s="1"/>
       <c r="X219" s="1"/>
-      <c r="Y219" s="1"/>
+      <c r="Y219" s="3"/>
       <c r="Z219" s="1"/>
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
@@ -10425,7 +10428,7 @@
       <c r="V253" s="1"/>
       <c r="W253" s="1"/>
       <c r="X253" s="1"/>
-      <c r="Y253" s="1"/>
+      <c r="Y253" s="3"/>
       <c r="Z253" s="1"/>
       <c r="AA253" s="1"/>
       <c r="AB253" s="1"/>
@@ -10508,7 +10511,7 @@
       <c r="V287" s="1"/>
       <c r="W287" s="1"/>
       <c r="X287" s="1"/>
-      <c r="Y287" s="1"/>
+      <c r="Y287" s="3"/>
       <c r="Z287" s="1"/>
       <c r="AA287" s="1"/>
       <c r="AB287" s="1"/>
@@ -10591,7 +10594,7 @@
       <c r="V321" s="1"/>
       <c r="W321" s="1"/>
       <c r="X321" s="1"/>
-      <c r="Y321" s="1"/>
+      <c r="Y321" s="3"/>
       <c r="Z321" s="1"/>
       <c r="AA321" s="1"/>
       <c r="AB321" s="1"/>
@@ -10674,7 +10677,7 @@
       <c r="V355" s="1"/>
       <c r="W355" s="1"/>
       <c r="X355" s="1"/>
-      <c r="Y355" s="1"/>
+      <c r="Y355" s="3"/>
       <c r="Z355" s="1"/>
       <c r="AA355" s="1"/>
       <c r="AB355" s="1"/>
@@ -10757,7 +10760,7 @@
       <c r="V389" s="1"/>
       <c r="W389" s="1"/>
       <c r="X389" s="1"/>
-      <c r="Y389" s="1"/>
+      <c r="Y389" s="3"/>
       <c r="Z389" s="1"/>
       <c r="AA389" s="1"/>
       <c r="AB389" s="1"/>
@@ -10840,7 +10843,7 @@
       <c r="V423" s="1"/>
       <c r="W423" s="1"/>
       <c r="X423" s="1"/>
-      <c r="Y423" s="1"/>
+      <c r="Y423" s="3"/>
       <c r="Z423" s="1"/>
       <c r="AA423" s="1"/>
       <c r="AB423" s="1"/>
@@ -10923,7 +10926,7 @@
       <c r="V457" s="1"/>
       <c r="W457" s="1"/>
       <c r="X457" s="1"/>
-      <c r="Y457" s="1"/>
+      <c r="Y457" s="3"/>
       <c r="Z457" s="1"/>
       <c r="AA457" s="1"/>
       <c r="AB457" s="1"/>
@@ -11006,7 +11009,7 @@
       <c r="V491" s="1"/>
       <c r="W491" s="1"/>
       <c r="X491" s="1"/>
-      <c r="Y491" s="1"/>
+      <c r="Y491" s="3"/>
       <c r="Z491" s="1"/>
       <c r="AA491" s="1"/>
       <c r="AB491" s="1"/>
@@ -11089,7 +11092,7 @@
       <c r="V525" s="1"/>
       <c r="W525" s="1"/>
       <c r="X525" s="1"/>
-      <c r="Y525" s="1"/>
+      <c r="Y525" s="3"/>
       <c r="Z525" s="1"/>
       <c r="AA525" s="1"/>
       <c r="AB525" s="1"/>
@@ -11172,7 +11175,7 @@
       <c r="V559" s="1"/>
       <c r="W559" s="1"/>
       <c r="X559" s="1"/>
-      <c r="Y559" s="1"/>
+      <c r="Y559" s="3"/>
       <c r="Z559" s="1"/>
       <c r="AA559" s="1"/>
       <c r="AB559" s="1"/>
@@ -11255,7 +11258,7 @@
       <c r="V593" s="1"/>
       <c r="W593" s="1"/>
       <c r="X593" s="1"/>
-      <c r="Y593" s="1"/>
+      <c r="Y593" s="3"/>
       <c r="Z593" s="1"/>
       <c r="AA593" s="1"/>
       <c r="AB593" s="1"/>
@@ -11338,7 +11341,7 @@
       <c r="V627" s="1"/>
       <c r="W627" s="1"/>
       <c r="X627" s="1"/>
-      <c r="Y627" s="1"/>
+      <c r="Y627" s="3"/>
       <c r="Z627" s="1"/>
       <c r="AA627" s="1"/>
       <c r="AB627" s="1"/>
@@ -11421,7 +11424,7 @@
       <c r="V661" s="1"/>
       <c r="W661" s="1"/>
       <c r="X661" s="1"/>
-      <c r="Y661" s="1"/>
+      <c r="Y661" s="3"/>
       <c r="Z661" s="1"/>
       <c r="AA661" s="1"/>
       <c r="AB661" s="1"/>
@@ -11504,7 +11507,7 @@
       <c r="V695" s="1"/>
       <c r="W695" s="1"/>
       <c r="X695" s="1"/>
-      <c r="Y695" s="1"/>
+      <c r="Y695" s="3"/>
       <c r="Z695" s="1"/>
       <c r="AA695" s="1"/>
       <c r="AB695" s="1"/>
@@ -11587,7 +11590,7 @@
       <c r="V729" s="1"/>
       <c r="W729" s="1"/>
       <c r="X729" s="1"/>
-      <c r="Y729" s="1"/>
+      <c r="Y729" s="3"/>
       <c r="Z729" s="1"/>
       <c r="AA729" s="1"/>
       <c r="AB729" s="1"/>
@@ -11670,7 +11673,7 @@
       <c r="V763" s="1"/>
       <c r="W763" s="1"/>
       <c r="X763" s="1"/>
-      <c r="Y763" s="1"/>
+      <c r="Y763" s="3"/>
       <c r="Z763" s="1"/>
       <c r="AA763" s="1"/>
       <c r="AB763" s="1"/>
@@ -11753,7 +11756,7 @@
       <c r="V797" s="1"/>
       <c r="W797" s="1"/>
       <c r="X797" s="1"/>
-      <c r="Y797" s="1"/>
+      <c r="Y797" s="3"/>
       <c r="Z797" s="1"/>
       <c r="AA797" s="1"/>
       <c r="AB797" s="1"/>
@@ -11836,7 +11839,7 @@
       <c r="V831" s="1"/>
       <c r="W831" s="1"/>
       <c r="X831" s="1"/>
-      <c r="Y831" s="1"/>
+      <c r="Y831" s="3"/>
       <c r="Z831" s="1"/>
       <c r="AA831" s="1"/>
       <c r="AB831" s="1"/>
@@ -11919,7 +11922,7 @@
       <c r="V865" s="1"/>
       <c r="W865" s="1"/>
       <c r="X865" s="1"/>
-      <c r="Y865" s="1"/>
+      <c r="Y865" s="3"/>
       <c r="Z865" s="1"/>
       <c r="AA865" s="1"/>
       <c r="AB865" s="1"/>
@@ -12002,7 +12005,7 @@
       <c r="V899" s="1"/>
       <c r="W899" s="1"/>
       <c r="X899" s="1"/>
-      <c r="Y899" s="1"/>
+      <c r="Y899" s="3"/>
       <c r="Z899" s="1"/>
       <c r="AA899" s="1"/>
       <c r="AB899" s="1"/>
@@ -12085,7 +12088,7 @@
       <c r="V933" s="1"/>
       <c r="W933" s="1"/>
       <c r="X933" s="1"/>
-      <c r="Y933" s="1"/>
+      <c r="Y933" s="3"/>
       <c r="Z933" s="1"/>
       <c r="AA933" s="1"/>
       <c r="AB933" s="1"/>
@@ -12168,7 +12171,7 @@
       <c r="V967" s="1"/>
       <c r="W967" s="1"/>
       <c r="X967" s="1"/>
-      <c r="Y967" s="1"/>
+      <c r="Y967" s="3"/>
       <c r="Z967" s="1"/>
       <c r="AA967" s="1"/>
       <c r="AB967" s="1"/>
@@ -12251,7 +12254,7 @@
       <c r="V1001" s="1"/>
       <c r="W1001" s="1"/>
       <c r="X1001" s="1"/>
-      <c r="Y1001" s="1"/>
+      <c r="Y1001" s="3"/>
       <c r="Z1001" s="1"/>
       <c r="AA1001" s="1"/>
       <c r="AB1001" s="1"/>
@@ -12334,7 +12337,7 @@
       <c r="V1035" s="1"/>
       <c r="W1035" s="1"/>
       <c r="X1035" s="1"/>
-      <c r="Y1035" s="1"/>
+      <c r="Y1035" s="3"/>
       <c r="Z1035" s="1"/>
       <c r="AA1035" s="1"/>
       <c r="AB1035" s="1"/>
@@ -12417,7 +12420,7 @@
       <c r="V1069" s="1"/>
       <c r="W1069" s="1"/>
       <c r="X1069" s="1"/>
-      <c r="Y1069" s="1"/>
+      <c r="Y1069" s="3"/>
       <c r="Z1069" s="1"/>
       <c r="AA1069" s="1"/>
       <c r="AB1069" s="1"/>
@@ -12500,7 +12503,7 @@
       <c r="V1103" s="1"/>
       <c r="W1103" s="1"/>
       <c r="X1103" s="1"/>
-      <c r="Y1103" s="1"/>
+      <c r="Y1103" s="3"/>
       <c r="Z1103" s="1"/>
       <c r="AA1103" s="1"/>
       <c r="AB1103" s="1"/>
@@ -12583,7 +12586,7 @@
       <c r="V1137" s="1"/>
       <c r="W1137" s="1"/>
       <c r="X1137" s="1"/>
-      <c r="Y1137" s="1"/>
+      <c r="Y1137" s="3"/>
       <c r="Z1137" s="1"/>
       <c r="AA1137" s="1"/>
       <c r="AB1137" s="1"/>
@@ -12666,7 +12669,7 @@
       <c r="V1171" s="1"/>
       <c r="W1171" s="1"/>
       <c r="X1171" s="1"/>
-      <c r="Y1171" s="1"/>
+      <c r="Y1171" s="3"/>
       <c r="Z1171" s="1"/>
       <c r="AA1171" s="1"/>
       <c r="AB1171" s="1"/>
@@ -12749,7 +12752,7 @@
       <c r="V1205" s="1"/>
       <c r="W1205" s="1"/>
       <c r="X1205" s="1"/>
-      <c r="Y1205" s="1"/>
+      <c r="Y1205" s="3"/>
       <c r="Z1205" s="1"/>
       <c r="AA1205" s="1"/>
       <c r="AB1205" s="1"/>
@@ -12832,7 +12835,7 @@
       <c r="V1239" s="1"/>
       <c r="W1239" s="1"/>
       <c r="X1239" s="1"/>
-      <c r="Y1239" s="1"/>
+      <c r="Y1239" s="3"/>
       <c r="Z1239" s="1"/>
       <c r="AA1239" s="1"/>
       <c r="AB1239" s="1"/>
@@ -12915,7 +12918,7 @@
       <c r="V1273" s="1"/>
       <c r="W1273" s="1"/>
       <c r="X1273" s="1"/>
-      <c r="Y1273" s="1"/>
+      <c r="Y1273" s="3"/>
       <c r="Z1273" s="1"/>
       <c r="AA1273" s="1"/>
       <c r="AB1273" s="1"/>
@@ -12998,7 +13001,7 @@
       <c r="V1307" s="1"/>
       <c r="W1307" s="1"/>
       <c r="X1307" s="1"/>
-      <c r="Y1307" s="1"/>
+      <c r="Y1307" s="3"/>
       <c r="Z1307" s="1"/>
       <c r="AA1307" s="1"/>
       <c r="AB1307" s="1"/>
@@ -13081,7 +13084,7 @@
       <c r="V1341" s="1"/>
       <c r="W1341" s="1"/>
       <c r="X1341" s="1"/>
-      <c r="Y1341" s="1"/>
+      <c r="Y1341" s="3"/>
       <c r="Z1341" s="1"/>
       <c r="AA1341" s="1"/>
       <c r="AB1341" s="1"/>
@@ -13164,7 +13167,7 @@
       <c r="V1375" s="1"/>
       <c r="W1375" s="1"/>
       <c r="X1375" s="1"/>
-      <c r="Y1375" s="1"/>
+      <c r="Y1375" s="3"/>
       <c r="Z1375" s="1"/>
       <c r="AA1375" s="1"/>
       <c r="AB1375" s="1"/>
@@ -13247,7 +13250,7 @@
       <c r="V1409" s="1"/>
       <c r="W1409" s="1"/>
       <c r="X1409" s="1"/>
-      <c r="Y1409" s="1"/>
+      <c r="Y1409" s="3"/>
       <c r="Z1409" s="1"/>
       <c r="AA1409" s="1"/>
       <c r="AB1409" s="1"/>
@@ -13330,7 +13333,7 @@
       <c r="V1443" s="1"/>
       <c r="W1443" s="1"/>
       <c r="X1443" s="1"/>
-      <c r="Y1443" s="1"/>
+      <c r="Y1443" s="3"/>
       <c r="Z1443" s="1"/>
       <c r="AA1443" s="1"/>
       <c r="AB1443" s="1"/>
@@ -13413,7 +13416,7 @@
       <c r="V1477" s="1"/>
       <c r="W1477" s="1"/>
       <c r="X1477" s="1"/>
-      <c r="Y1477" s="1"/>
+      <c r="Y1477" s="3"/>
       <c r="Z1477" s="1"/>
       <c r="AA1477" s="1"/>
       <c r="AB1477" s="1"/>
@@ -13496,7 +13499,7 @@
       <c r="V1511" s="1"/>
       <c r="W1511" s="1"/>
       <c r="X1511" s="1"/>
-      <c r="Y1511" s="1"/>
+      <c r="Y1511" s="3"/>
       <c r="Z1511" s="1"/>
       <c r="AA1511" s="1"/>
       <c r="AB1511" s="1"/>
@@ -13579,7 +13582,7 @@
       <c r="V1545" s="1"/>
       <c r="W1545" s="1"/>
       <c r="X1545" s="1"/>
-      <c r="Y1545" s="1"/>
+      <c r="Y1545" s="3"/>
       <c r="Z1545" s="1"/>
       <c r="AA1545" s="1"/>
       <c r="AB1545" s="1"/>
@@ -13662,7 +13665,7 @@
       <c r="V1579" s="1"/>
       <c r="W1579" s="1"/>
       <c r="X1579" s="1"/>
-      <c r="Y1579" s="1"/>
+      <c r="Y1579" s="3"/>
       <c r="Z1579" s="1"/>
       <c r="AA1579" s="1"/>
       <c r="AB1579" s="1"/>
@@ -13745,7 +13748,7 @@
       <c r="V1613" s="1"/>
       <c r="W1613" s="1"/>
       <c r="X1613" s="1"/>
-      <c r="Y1613" s="1"/>
+      <c r="Y1613" s="3"/>
       <c r="Z1613" s="1"/>
       <c r="AA1613" s="1"/>
       <c r="AB1613" s="1"/>
@@ -13828,7 +13831,7 @@
       <c r="V1647" s="1"/>
       <c r="W1647" s="1"/>
       <c r="X1647" s="1"/>
-      <c r="Y1647" s="1"/>
+      <c r="Y1647" s="3"/>
       <c r="Z1647" s="1"/>
       <c r="AA1647" s="1"/>
       <c r="AB1647" s="1"/>
@@ -13911,7 +13914,7 @@
       <c r="V1681" s="1"/>
       <c r="W1681" s="1"/>
       <c r="X1681" s="1"/>
-      <c r="Y1681" s="1"/>
+      <c r="Y1681" s="3"/>
       <c r="Z1681" s="1"/>
       <c r="AA1681" s="1"/>
       <c r="AB1681" s="1"/>
@@ -13994,7 +13997,7 @@
       <c r="V1715" s="1"/>
       <c r="W1715" s="1"/>
       <c r="X1715" s="1"/>
-      <c r="Y1715" s="1"/>
+      <c r="Y1715" s="3"/>
       <c r="Z1715" s="1"/>
       <c r="AA1715" s="1"/>
       <c r="AB1715" s="1"/>
@@ -14077,7 +14080,7 @@
       <c r="V1749" s="1"/>
       <c r="W1749" s="1"/>
       <c r="X1749" s="1"/>
-      <c r="Y1749" s="1"/>
+      <c r="Y1749" s="3"/>
       <c r="Z1749" s="1"/>
       <c r="AA1749" s="1"/>
       <c r="AB1749" s="1"/>
@@ -14160,7 +14163,7 @@
       <c r="V1783" s="1"/>
       <c r="W1783" s="1"/>
       <c r="X1783" s="1"/>
-      <c r="Y1783" s="1"/>
+      <c r="Y1783" s="3"/>
       <c r="Z1783" s="1"/>
       <c r="AA1783" s="1"/>
       <c r="AB1783" s="1"/>
@@ -14243,7 +14246,7 @@
       <c r="V1817" s="1"/>
       <c r="W1817" s="1"/>
       <c r="X1817" s="1"/>
-      <c r="Y1817" s="1"/>
+      <c r="Y1817" s="3"/>
       <c r="Z1817" s="1"/>
       <c r="AA1817" s="1"/>
       <c r="AB1817" s="1"/>
@@ -14326,7 +14329,7 @@
       <c r="V1851" s="1"/>
       <c r="W1851" s="1"/>
       <c r="X1851" s="1"/>
-      <c r="Y1851" s="1"/>
+      <c r="Y1851" s="3"/>
       <c r="Z1851" s="1"/>
       <c r="AA1851" s="1"/>
       <c r="AB1851" s="1"/>
@@ -14409,7 +14412,7 @@
       <c r="V1885" s="1"/>
       <c r="W1885" s="1"/>
       <c r="X1885" s="1"/>
-      <c r="Y1885" s="1"/>
+      <c r="Y1885" s="3"/>
       <c r="Z1885" s="1"/>
       <c r="AA1885" s="1"/>
       <c r="AB1885" s="1"/>
@@ -14492,7 +14495,7 @@
       <c r="V1919" s="1"/>
       <c r="W1919" s="1"/>
       <c r="X1919" s="1"/>
-      <c r="Y1919" s="1"/>
+      <c r="Y1919" s="3"/>
       <c r="Z1919" s="1"/>
       <c r="AA1919" s="1"/>
       <c r="AB1919" s="1"/>
@@ -14575,7 +14578,7 @@
       <c r="V1953" s="1"/>
       <c r="W1953" s="1"/>
       <c r="X1953" s="1"/>
-      <c r="Y1953" s="1"/>
+      <c r="Y1953" s="3"/>
       <c r="Z1953" s="1"/>
       <c r="AA1953" s="1"/>
       <c r="AB1953" s="1"/>
@@ -14658,7 +14661,7 @@
       <c r="V1987" s="1"/>
       <c r="W1987" s="1"/>
       <c r="X1987" s="1"/>
-      <c r="Y1987" s="1"/>
+      <c r="Y1987" s="3"/>
       <c r="Z1987" s="1"/>
       <c r="AA1987" s="1"/>
       <c r="AB1987" s="1"/>
@@ -14741,7 +14744,7 @@
       <c r="V2021" s="1"/>
       <c r="W2021" s="1"/>
       <c r="X2021" s="1"/>
-      <c r="Y2021" s="1"/>
+      <c r="Y2021" s="3"/>
       <c r="Z2021" s="1"/>
       <c r="AA2021" s="1"/>
       <c r="AB2021" s="1"/>
@@ -14824,7 +14827,7 @@
       <c r="V2055" s="1"/>
       <c r="W2055" s="1"/>
       <c r="X2055" s="1"/>
-      <c r="Y2055" s="1"/>
+      <c r="Y2055" s="3"/>
       <c r="Z2055" s="1"/>
       <c r="AA2055" s="1"/>
       <c r="AB2055" s="1"/>
@@ -14907,7 +14910,7 @@
       <c r="V2089" s="1"/>
       <c r="W2089" s="1"/>
       <c r="X2089" s="1"/>
-      <c r="Y2089" s="1"/>
+      <c r="Y2089" s="3"/>
       <c r="Z2089" s="1"/>
       <c r="AA2089" s="1"/>
       <c r="AB2089" s="1"/>
@@ -14990,7 +14993,7 @@
       <c r="V2123" s="1"/>
       <c r="W2123" s="1"/>
       <c r="X2123" s="1"/>
-      <c r="Y2123" s="1"/>
+      <c r="Y2123" s="3"/>
       <c r="Z2123" s="1"/>
       <c r="AA2123" s="1"/>
       <c r="AB2123" s="1"/>
@@ -15073,7 +15076,7 @@
       <c r="V2157" s="1"/>
       <c r="W2157" s="1"/>
       <c r="X2157" s="1"/>
-      <c r="Y2157" s="1"/>
+      <c r="Y2157" s="3"/>
       <c r="Z2157" s="1"/>
       <c r="AA2157" s="1"/>
       <c r="AB2157" s="1"/>
@@ -15156,7 +15159,7 @@
       <c r="V2191" s="1"/>
       <c r="W2191" s="1"/>
       <c r="X2191" s="1"/>
-      <c r="Y2191" s="1"/>
+      <c r="Y2191" s="3"/>
       <c r="Z2191" s="1"/>
       <c r="AA2191" s="1"/>
       <c r="AB2191" s="1"/>
@@ -15239,7 +15242,7 @@
       <c r="V2225" s="1"/>
       <c r="W2225" s="1"/>
       <c r="X2225" s="1"/>
-      <c r="Y2225" s="1"/>
+      <c r="Y2225" s="3"/>
       <c r="Z2225" s="1"/>
       <c r="AA2225" s="1"/>
       <c r="AB2225" s="1"/>
@@ -15322,7 +15325,7 @@
       <c r="V2259" s="1"/>
       <c r="W2259" s="1"/>
       <c r="X2259" s="1"/>
-      <c r="Y2259" s="1"/>
+      <c r="Y2259" s="3"/>
       <c r="Z2259" s="1"/>
       <c r="AA2259" s="1"/>
       <c r="AB2259" s="1"/>
@@ -15405,7 +15408,7 @@
       <c r="V2293" s="1"/>
       <c r="W2293" s="1"/>
       <c r="X2293" s="1"/>
-      <c r="Y2293" s="1"/>
+      <c r="Y2293" s="3"/>
       <c r="Z2293" s="1"/>
       <c r="AA2293" s="1"/>
       <c r="AB2293" s="1"/>
@@ -15488,7 +15491,7 @@
       <c r="V2327" s="1"/>
       <c r="W2327" s="1"/>
       <c r="X2327" s="1"/>
-      <c r="Y2327" s="1"/>
+      <c r="Y2327" s="3"/>
       <c r="Z2327" s="1"/>
       <c r="AA2327" s="1"/>
       <c r="AB2327" s="1"/>
@@ -15571,7 +15574,7 @@
       <c r="V2361" s="1"/>
       <c r="W2361" s="1"/>
       <c r="X2361" s="1"/>
-      <c r="Y2361" s="1"/>
+      <c r="Y2361" s="3"/>
       <c r="Z2361" s="1"/>
       <c r="AA2361" s="1"/>
       <c r="AB2361" s="1"/>
@@ -15654,7 +15657,7 @@
       <c r="V2395" s="1"/>
       <c r="W2395" s="1"/>
       <c r="X2395" s="1"/>
-      <c r="Y2395" s="1"/>
+      <c r="Y2395" s="3"/>
       <c r="Z2395" s="1"/>
       <c r="AA2395" s="1"/>
       <c r="AB2395" s="1"/>
@@ -15737,7 +15740,7 @@
       <c r="V2429" s="1"/>
       <c r="W2429" s="1"/>
       <c r="X2429" s="1"/>
-      <c r="Y2429" s="1"/>
+      <c r="Y2429" s="3"/>
       <c r="Z2429" s="1"/>
       <c r="AA2429" s="1"/>
       <c r="AB2429" s="1"/>
@@ -15820,7 +15823,7 @@
       <c r="V2463" s="1"/>
       <c r="W2463" s="1"/>
       <c r="X2463" s="1"/>
-      <c r="Y2463" s="1"/>
+      <c r="Y2463" s="3"/>
       <c r="Z2463" s="1"/>
       <c r="AA2463" s="1"/>
       <c r="AB2463" s="1"/>
@@ -15903,7 +15906,7 @@
       <c r="V2497" s="1"/>
       <c r="W2497" s="1"/>
       <c r="X2497" s="1"/>
-      <c r="Y2497" s="1"/>
+      <c r="Y2497" s="3"/>
       <c r="Z2497" s="1"/>
       <c r="AA2497" s="1"/>
       <c r="AB2497" s="1"/>
@@ -15986,7 +15989,7 @@
       <c r="V2531" s="1"/>
       <c r="W2531" s="1"/>
       <c r="X2531" s="1"/>
-      <c r="Y2531" s="1"/>
+      <c r="Y2531" s="3"/>
       <c r="Z2531" s="1"/>
       <c r="AA2531" s="1"/>
       <c r="AB2531" s="1"/>
@@ -16069,7 +16072,7 @@
       <c r="V2565" s="1"/>
       <c r="W2565" s="1"/>
       <c r="X2565" s="1"/>
-      <c r="Y2565" s="1"/>
+      <c r="Y2565" s="3"/>
       <c r="Z2565" s="1"/>
       <c r="AA2565" s="1"/>
       <c r="AB2565" s="1"/>
@@ -16152,7 +16155,7 @@
       <c r="V2599" s="1"/>
       <c r="W2599" s="1"/>
       <c r="X2599" s="1"/>
-      <c r="Y2599" s="1"/>
+      <c r="Y2599" s="3"/>
       <c r="Z2599" s="1"/>
       <c r="AA2599" s="1"/>
       <c r="AB2599" s="1"/>
@@ -16235,7 +16238,7 @@
       <c r="V2633" s="1"/>
       <c r="W2633" s="1"/>
       <c r="X2633" s="1"/>
-      <c r="Y2633" s="1"/>
+      <c r="Y2633" s="3"/>
       <c r="Z2633" s="1"/>
       <c r="AA2633" s="1"/>
       <c r="AB2633" s="1"/>
@@ -16318,7 +16321,7 @@
       <c r="V2667" s="1"/>
       <c r="W2667" s="1"/>
       <c r="X2667" s="1"/>
-      <c r="Y2667" s="1"/>
+      <c r="Y2667" s="3"/>
       <c r="Z2667" s="1"/>
       <c r="AA2667" s="1"/>
       <c r="AB2667" s="1"/>
@@ -16401,7 +16404,7 @@
       <c r="V2701" s="1"/>
       <c r="W2701" s="1"/>
       <c r="X2701" s="1"/>
-      <c r="Y2701" s="1"/>
+      <c r="Y2701" s="3"/>
       <c r="Z2701" s="1"/>
       <c r="AA2701" s="1"/>
       <c r="AB2701" s="1"/>
@@ -16484,7 +16487,7 @@
       <c r="V2735" s="1"/>
       <c r="W2735" s="1"/>
       <c r="X2735" s="1"/>
-      <c r="Y2735" s="1"/>
+      <c r="Y2735" s="3"/>
       <c r="Z2735" s="1"/>
       <c r="AA2735" s="1"/>
       <c r="AB2735" s="1"/>
